--- a/biology/Médecine/Vindésine/Vindésine.xlsx
+++ b/biology/Médecine/Vindésine/Vindésine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Vind%C3%A9sine</t>
+          <t>Vindésine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La vindésine est un vinca-alcaloïde commercialisé en France sous le nom de Eldisine par les laboratoires EuroGenerics.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Vind%C3%A9sine</t>
+          <t>Vindésine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La vindésine est utilisée dans le traitement :
 des leucémies aiguës lymphoblastiques et lymphomes réfractaires à la chimiothérapie (c'est-à-dire aux autres agents cytostatiques) ;
-de certaines tumeurs solides : cancers du sein, de l'œsophage, des voies aérodigestives supérieures et cancer broncho-pulmonaire[2],[3].</t>
+de certaines tumeurs solides : cancers du sein, de l'œsophage, des voies aérodigestives supérieures et cancer broncho-pulmonaire,.</t>
         </is>
       </c>
     </row>
